--- a/AS_FY26_【takao.hattori】_目標管理／FBシート.xlsx
+++ b/AS_FY26_【takao.hattori】_目標管理／FBシート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ts.accenture.com/sites/Namamugi_Tachikawa_Satellite/Shared Documents/00_common/01_マニュアル・テンプレート/06_各種面談/02_目標設定・FB面談/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ts.accenture.com/sites/a_SV689/Shared Documents/General/01_生麦ドキュメント/01_個人用フォルダ(権限制限有)/takao.hattori/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2419" documentId="8_{095BF371-AB65-46B6-B120-C5B9C5048FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7708B6ED-D6ED-4020-8F03-1C01F5CAC628}"/>
+  <xr:revisionPtr revIDLastSave="2448" documentId="8_{095BF371-AB65-46B6-B120-C5B9C5048FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D288E831-F51F-400A-9D87-CE4FA8F63F90}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="832" firstSheet="1" activeTab="1" xr2:uid="{EE1F9763-8749-4457-8280-CB4D59ABE484}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="832" firstSheet="1" activeTab="1" xr2:uid="{EE1F9763-8749-4457-8280-CB4D59ABE484}"/>
   </bookViews>
   <sheets>
     <sheet name="業務・勤怠サマリ" sheetId="2" state="hidden" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FY26_目標管理!$B$14:$AC$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FY26_目標管理!$B$14:$AC$26</definedName>
     <definedName name="FY25上期_CFT1">[1]!tblCFT1[CFT1]</definedName>
     <definedName name="FY25上期_CFT2">[1]!tblCFT2[CFT2]</definedName>
     <definedName name="FY25上期_NBT">[1]!tblNBT[NBT]</definedName>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="71">
   <si>
     <t>業務</t>
     <rPh sb="0" eb="2">
@@ -339,13 +339,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>メヤス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サテライトのメンバーとして今後も働き続けたい。(デフォルト回答)</t>
-    <rPh sb="29" eb="31">
-      <t>カイトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -779,30 +772,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※例</t>
-    <rPh sb="1" eb="2">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【例】
-チームの後輩が課題に対して解決策を考えるスキルを身に付けられるよう育成する。</t>
-    <rPh sb="1" eb="2">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウハイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タイイクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実行中</t>
     <rPh sb="0" eb="3">
       <t>ジッコウチュウ</t>
@@ -810,314 +779,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【振り返り】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">：
-　・□□さんと協力し、□□課題の提案資料を作成して改善に繋げることができた。
-　・△△案件のフローを改善し時間を確保できるようになった。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【今後のアクション】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>：××さんの資料作成をサポートして××課題の解決策をSVに提案する。</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キョウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="24" eb="28">
-      <t>テイアンシリョウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カイゼン</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ツナ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>アンケン</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>カイゼン</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>カクホ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>コンゴ</t>
-    </rPh>
-    <rPh sb="93" eb="97">
-      <t>シリョウサクセイ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="109" eb="112">
-      <t>カイケツサク</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>テイアン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【振り返り】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">：xxxx
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【今後のアクション】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>：xxxx</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カエコンゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>【例】</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-○○○○○○
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(YYYY/M/D修正)
-▲▲▲▲▲▲</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【設定理由】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">：xxxx
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【達成のためのアクション】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">：xxxx
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【達成基準】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>：
-　・</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>○○○○○○</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-(YYYY/M/D修正)
-　・▲▲▲▲▲▲</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>2024/1/31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-(2024/1/10修正)
-2024/6/30</t>
-    </r>
-    <rPh sb="20" eb="22">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
@@ -1125,145 +786,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【振り返り】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>：xxxx
-【</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>今後のアクション】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>：達成期日を6/30に延長し、目標の内容・達成基準を修正する。</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カエコンゴ</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>タッセイキジツ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>エンチョウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>タッセイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>キジュン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【振り返り】：xxxxできたため、目標達成とする。
-【今後のアクション】：xxxx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【振り返り】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">：xxxxできたため、目標達成と認める。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【今後のアクション】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>：xxxx</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カエコンゴ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>タッセイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ミト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>優先順位</t>
     <rPh sb="0" eb="4">
       <t>ユウセンジュンイ</t>
@@ -1312,151 +834,362 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【設定理由】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">：サブリーダー/リーダーを目指すうえでマネジメントスキルを身に付ける必要があるため。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【達成のためのアクション】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">：
-　・チーム内で優先対応すべき課題を共有し、後輩に解決策を考えてもらいつつ、適宜サポートする。
-　・後輩の育成に時間を充てられるよう既存業務を効率化する。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【達成基準】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>：
-　・後輩○人とそれぞれ協力し、○件の課題を解決する。</t>
-    </r>
-    <rPh sb="1" eb="5">
-      <t>セッテイリユウ</t>
+    <t>サテライトのメンバーとして今後も働き続けたい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・チームリーダーとして、チーム内の自動化グループを牽引し、メンバー全員がツールを保守しやすい環境(ドキュメント整備)を作る
+・他のチームにも、我々のグループのノウハウを展開できるようにする。</t>
+    <rPh sb="15" eb="16">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケンイン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>セイビ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ワレワレ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・他のリーダー陣、サブリーダー、メンバーの意見の中で方向性が1つに定まらない場合、方向性を１つに定めやすいように、一歩引いた目線でチームを見れるようにする。</t>
+    <rPh sb="1" eb="2">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イケン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ホウコウセイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>サダ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ホウコウセイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>サダ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>イッポヒ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>メセン</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・前期に引き続き業務のメリハリを付け、余裕をもって業務を行い、メンタルの安定化をする。</t>
+    <rPh sb="1" eb="3">
+      <t>ゼンキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツ</t>
     </rPh>
     <rPh sb="19" eb="21">
-      <t>メザ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>タッセイ</t>
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>アンテイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>創意工夫し、余裕を持って業務を実施し、メンタルに影響が出ないようにして、勤怠の安定性を図る。</t>
+    <rPh sb="0" eb="4">
+      <t>ソウイクフウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>アンテイセイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ハカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【設定理由】：余裕を持って業務を行うことで、メンタルに余裕を持ち、勤怠の安定化を図るため。
+【達成のためのアクション】：
+　・現在も余裕を持って業務を実施しているが、今後案件が増えていっても、タスク整理を定期的に実施し、実用に応じて相談をしながら、メンタルに余裕を持ち、勤怠の安定化を図る。
+・メンタルに余裕があるかどうかを、都度実施する。
+　【達成基準】：
+　・メンタル不調による、遅刻・欠勤を0とする。</t>
+    <rPh sb="7" eb="9">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>アンテイカ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ハカ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヨユウ</t>
     </rPh>
     <rPh sb="69" eb="70">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="83" eb="87">
+      <t>コンゴアンケン</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="102" eb="105">
+      <t>テイキテキ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ジツヨウ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="138" eb="141">
+      <t>アンテイカ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ハカ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ツド</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>フチョウ</t>
+    </rPh>
+    <rPh sb="192" eb="194">
+      <t>チコク</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>ケッキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動化ツール開発グループ全体で保守しやすい開発体制を構築する。</t>
+    <rPh sb="6" eb="8">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>カイハツタイセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【設定理由】：現状、個々のメンバーそれぞれで、自動化ツールの開発、保守を実施しているが、保守しにくいツールがあり、メンテナンスに大きな工数をかけているために設定しました。
+【達成のためのアクション】：
+　・ソースコードのコメントの書き方を、一部共通化して、分かりやすく、メンテナンスしやすいように生麦Xチーム内でルール化し、共通ルールをドキュメント化する。
+【達成基準】：
+・生麦Xチーム内で開発したツールの詳細設計書を全て作成する。</t>
+    <rPh sb="7" eb="9">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ココ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="120" eb="125">
+      <t>イチブキョウツウカ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ナマムギ</t>
+    </rPh>
+    <rPh sb="154" eb="155">
       <t>ナイ</t>
     </rPh>
-    <rPh sb="71" eb="73">
-      <t>ユウセン</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>コウハイ</t>
-    </rPh>
-    <rPh sb="88" eb="91">
-      <t>カイケツサク</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>テキギ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>コウハイ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>イクセイ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="134" eb="137">
-      <t>コウリツカ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>タッセイ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>キジュン</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>コウハイ</t>
-    </rPh>
-    <rPh sb="165" eb="166">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="167" eb="169">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="170" eb="172">
-      <t>カイケツ</t>
+    <rPh sb="159" eb="160">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>ナマムギ</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="204" eb="209">
+      <t>ショウサイセッケイショ</t>
+    </rPh>
+    <rPh sb="210" eb="211">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1465,7 +1198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1536,21 +1269,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1719,7 +1437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1813,9 +1531,6 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1833,9 +1548,6 @@
     </xf>
     <xf numFmtId="14" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2502,19 +2214,19 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:12" ht="29.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="44"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -2594,14 +2306,14 @@
       <c r="H10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44" t="s">
+      <c r="J10" s="42"/>
+      <c r="K10" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="44"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
@@ -2633,41 +2345,41 @@
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="43"/>
       <c r="H12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45" t="s">
+      <c r="J12" s="43"/>
+      <c r="K12" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="45"/>
+      <c r="L12" s="43"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="43"/>
       <c r="H13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="I13" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45" t="s">
+      <c r="J13" s="43"/>
+      <c r="K13" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="45"/>
+      <c r="L13" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2694,13 +2406,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10071B7-9FB5-4E81-8207-51273BB721EE}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AP30"/>
+  <dimension ref="B1:AP28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="14" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E18" sqref="E18"/>
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.5" outlineLevelRow="2" x14ac:dyDescent="0.55000000000000004"/>
@@ -2746,125 +2458,131 @@
     <col min="45" max="16384" width="8.58203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="6" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="2" spans="1:42" ht="20.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:42" ht="6" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="2:42" ht="20.149999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:42" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="50" t="s">
+    <row r="3" spans="2:42" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="51" t="s">
+    <row r="4" spans="2:42" ht="25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="2:42" ht="6" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="2:42" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:42" ht="6" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="6" spans="1:42" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="2:42" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="59" t="s">
+      <c r="K7" s="57"/>
+    </row>
+    <row r="8" spans="2:42" ht="44.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="59"/>
-    </row>
-    <row r="8" spans="1:42" ht="44.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="60" t="s">
+      <c r="K8" s="59"/>
+    </row>
+    <row r="9" spans="2:42" ht="44.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="61"/>
-    </row>
-    <row r="9" spans="1:42" ht="44.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="60" t="s">
+      <c r="K9" s="59"/>
+    </row>
+    <row r="10" spans="2:42" ht="44.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="61"/>
-    </row>
-    <row r="10" spans="1:42" ht="44.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="E10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="61"/>
-    </row>
-    <row r="11" spans="1:42" ht="6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K10" s="59"/>
+    </row>
+    <row r="11" spans="2:42" ht="6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -2874,9 +2592,9 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -2886,7 +2604,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:42" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -2895,147 +2613,147 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="48" t="str">
+      <c r="J13" s="46" t="str">
         <f>"セルフFB_#"&amp;COUNTIF($B$13:I$13,"セルフFB*")+1</f>
         <v>セルフFB_#1</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="46" t="str">
+      <c r="K13" s="47"/>
+      <c r="L13" s="44" t="str">
         <f>"SVFB_#"&amp;COUNTIF($B$13:K$13,"SVFB*")+1</f>
         <v>SVFB_#1</v>
       </c>
-      <c r="M13" s="47"/>
-      <c r="N13" s="48" t="str">
+      <c r="M13" s="45"/>
+      <c r="N13" s="46" t="str">
         <f>"セルフFB_#"&amp;COUNTIF($B$13:M$13,"セルフFB*")+1</f>
         <v>セルフFB_#2</v>
       </c>
-      <c r="O13" s="49"/>
-      <c r="P13" s="46" t="str">
+      <c r="O13" s="47"/>
+      <c r="P13" s="44" t="str">
         <f>"SVFB_#"&amp;COUNTIF($B$13:O$13,"SVFB*")+1</f>
         <v>SVFB_#2</v>
       </c>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="48" t="str">
+      <c r="Q13" s="45"/>
+      <c r="R13" s="46" t="str">
         <f>"セルフFB_#"&amp;COUNTIF($B$13:Q$13,"セルフFB*")+1</f>
         <v>セルフFB_#3</v>
       </c>
-      <c r="S13" s="49"/>
-      <c r="T13" s="46" t="str">
+      <c r="S13" s="47"/>
+      <c r="T13" s="44" t="str">
         <f>"SVFB_#"&amp;COUNTIF($B$13:S$13,"SVFB*")+1</f>
         <v>SVFB_#3</v>
       </c>
-      <c r="U13" s="47"/>
-      <c r="V13" s="48" t="str">
+      <c r="U13" s="45"/>
+      <c r="V13" s="46" t="str">
         <f>"セルフFB_#"&amp;COUNTIF($B$13:U$13,"セルフFB*")+1</f>
         <v>セルフFB_#4</v>
       </c>
-      <c r="W13" s="49"/>
-      <c r="X13" s="46" t="str">
+      <c r="W13" s="47"/>
+      <c r="X13" s="44" t="str">
         <f>"SVFB_#"&amp;COUNTIF($B$13:W$13,"SVFB*")+1</f>
         <v>SVFB_#4</v>
       </c>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="48" t="str">
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="46" t="str">
         <f>"セルフFB_#"&amp;COUNTIF($B$13:Y$13,"セルフFB*")+1</f>
         <v>セルフFB_#5</v>
       </c>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="46" t="str">
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="44" t="str">
         <f>"SVFB_#"&amp;COUNTIF($B$13:AA$13,"SVFB*")+1</f>
         <v>SVFB_#5</v>
       </c>
-      <c r="AC13" s="47"/>
+      <c r="AC13" s="45"/>
       <c r="AD13" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:42" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:42" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="27" t="s">
+      <c r="C14" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="28" t="s">
+      <c r="E14" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="G14" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="H14" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="I14" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="J14" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="K14" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="L14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="N14" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="N14" s="29" t="s">
+      <c r="P14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="S14" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="T14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="U14" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="P14" s="24" t="s">
+      <c r="V14" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="W14" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="Q14" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="R14" s="29" t="s">
+      <c r="X14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y14" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z14" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA14" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="S14" s="23" t="s">
+      <c r="AB14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC14" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="T14" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="U14" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="V14" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="W14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="X14" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y14" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z14" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB14" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC14" s="30" t="s">
-        <v>55</v>
-      </c>
       <c r="AD14" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE14" s="12"/>
       <c r="AF14" s="12"/>
@@ -3050,649 +2768,551 @@
       <c r="AO14" s="12"/>
       <c r="AP14" s="12"/>
     </row>
-    <row r="15" spans="1:42" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="32">
+    <row r="15" spans="2:42" ht="165.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="31">
         <v>1</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="39">
-        <v>45180</v>
-      </c>
-      <c r="G15" s="38">
-        <v>45322</v>
-      </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="35">
-        <v>45271</v>
-      </c>
-      <c r="K15" s="36" t="s">
+      <c r="C15" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:42" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="31">
+        <v>2</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="31">
+        <v>3</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="35">
-        <v>45272</v>
-      </c>
-      <c r="M15" s="33" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" ht="121.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="31">
+        <v>4</v>
+      </c>
+      <c r="C18" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="39">
-        <v>45180</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="34">
-        <v>45455</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="35">
-        <v>45271</v>
-      </c>
-      <c r="K16" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="35">
-        <v>45272</v>
-      </c>
-      <c r="M16" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="N16" s="35">
-        <v>45454</v>
-      </c>
-      <c r="O16" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="P16" s="35">
-        <v>45455</v>
-      </c>
-      <c r="Q16" s="36" t="s">
+      <c r="D18" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="R16" s="37"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="2:30" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:30" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="33"/>
+      <c r="E18" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="32"/>
       <c r="AD18" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:30" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="33"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="32"/>
       <c r="AD19" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:30" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="33"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="32"/>
       <c r="AD20" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:30" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="33"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="32"/>
       <c r="AD21" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:30" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="33"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="32"/>
       <c r="AD22" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:30" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="33"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="32"/>
       <c r="AD23" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:30" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="33"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="32"/>
       <c r="AD24" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:30" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="37"/>
-      <c r="AC25" s="33"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="32"/>
       <c r="AD25" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:30" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="33"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="32"/>
       <c r="AD26" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:30" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="2:30" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="2:30" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="40"/>
-      <c r="AB29" s="43"/>
-      <c r="AC29" s="40"/>
-      <c r="AD29" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="P30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="R30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="S30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="T30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="U30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="V30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="W30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="X30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD30" s="12" t="s">
-        <v>45</v>
+      <c r="H27" s="40"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="U28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="X28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD28" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B14:AC28" xr:uid="{C10071B7-9FB5-4E81-8207-51273BB721EE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:AC28">
-      <sortCondition ref="B14:B28"/>
+  <autoFilter ref="B14:AC26" xr:uid="{C10071B7-9FB5-4E81-8207-51273BB721EE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:AC26">
+      <sortCondition ref="B14:B26"/>
     </sortState>
   </autoFilter>
   <mergeCells count="20">
@@ -3718,19 +3338,19 @@
     <mergeCell ref="Z13:AA13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B15:AD30">
+  <conditionalFormatting sqref="B15:AD28">
     <cfRule type="expression" dxfId="0" priority="15">
       <formula>AND(OR($I15="完了",$I15="キャンセル",$I15="次年度繰越"),B15&lt;&gt;"e")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I15:I29" xr:uid="{5E2BB32F-1AC8-45F0-B956-2D66EFC57385}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I15:I27" xr:uid="{5E2BB32F-1AC8-45F0-B956-2D66EFC57385}">
       <formula1>ステータス</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C29" xr:uid="{CD58634E-9B2E-4528-8CC3-A630E31B49FB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C27" xr:uid="{CD58634E-9B2E-4528-8CC3-A630E31B49FB}">
       <formula1>分類</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B15:B29" xr:uid="{056B5CF4-B747-4AEC-8355-3C395801203A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B15:B27" xr:uid="{056B5CF4-B747-4AEC-8355-3C395801203A}">
       <formula1>優先順位</formula1>
     </dataValidation>
   </dataValidations>
@@ -3765,15 +3385,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="10" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3782,11 +3402,11 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3794,10 +3414,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3805,10 +3425,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3817,7 +3437,7 @@
       </c>
       <c r="C5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -4201,22 +3821,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0781FB0-B990-4CBE-863D-AD670F0E0F28}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0781FB0-B990-4CBE-863D-AD670F0E0F28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8d277efa-c465-48ab-8a54-8a9c920e3d0d"/>
+    <ds:schemaRef ds:uri="6b74e563-c8ba-468d-8003-e50e867589bc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0286D770-B9EF-4196-924C-5D4A387F94D6}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="6b74e563-c8ba-468d-8003-e50e867589bc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="2800fe1a-de70-4134-97c0-3f20be222615"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9dd3bebe-02df-40bc-82d6-69dfec61ed77"/>
+    <ds:schemaRef ds:uri="8d277efa-c465-48ab-8a54-8a9c920e3d0d"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/AS_FY26_【takao.hattori】_目標管理／FBシート.xlsx
+++ b/AS_FY26_【takao.hattori】_目標管理／FBシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ts.accenture.com/sites/a_SV689/Shared Documents/General/01_生麦ドキュメント/01_個人用フォルダ(権限制限有)/takao.hattori/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2448" documentId="8_{095BF371-AB65-46B6-B120-C5B9C5048FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D288E831-F51F-400A-9D87-CE4FA8F63F90}"/>
+  <xr:revisionPtr revIDLastSave="2462" documentId="8_{095BF371-AB65-46B6-B120-C5B9C5048FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FEBD0FC-B960-4B47-8774-61E20FF04782}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="832" firstSheet="1" activeTab="1" xr2:uid="{EE1F9763-8749-4457-8280-CB4D59ABE484}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="832" firstSheet="1" activeTab="1" xr2:uid="{EE1F9763-8749-4457-8280-CB4D59ABE484}"/>
   </bookViews>
   <sheets>
     <sheet name="業務・勤怠サマリ" sheetId="2" state="hidden" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="75">
   <si>
     <t>業務</t>
     <rPh sb="0" eb="2">
@@ -912,37 +912,6 @@
     </rPh>
     <rPh sb="69" eb="70">
       <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・前期に引き続き業務のメリハリを付け、余裕をもって業務を行い、メンタルの安定化をする。</t>
-    <rPh sb="1" eb="3">
-      <t>ゼンキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヨユウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>アンテイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1190,6 +1159,292 @@
     </rPh>
     <rPh sb="212" eb="214">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【設定理由】：現状、生麦Xチームの傾向として、すぐに状況判断しすぎて、方向性を見誤るケースが散見されるために設定。
+【達成のためのアクション】：
+　・リーダー陣およびリーダー候補の意見を聞いたうえで、冷静に判断できる役割を果たし、グループ全体、チーム全体の方向性を一本化するように動く。
+【達成基準】：
+・生麦Xチーム内、およびグループ内で意見の総意、誤った指示を0件にする。</t>
+    <rPh sb="7" eb="9">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナマムギ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケイコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ホウコウセイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ミアヤマ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>サンケン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>イケン</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>レイセイ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="128" eb="131">
+      <t>ホウコウセイ</t>
+    </rPh>
+    <rPh sb="132" eb="135">
+      <t>イッポンカ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ナマムギ</t>
+    </rPh>
+    <rPh sb="159" eb="160">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>イケン</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>ソウイ</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループの意見、リーダー陣の意見を傾聴し、意見の統一を図り、指示の迷子にならないように、コミュニケーションを工夫する。</t>
+    <rPh sb="5" eb="7">
+      <t>イケン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イケン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケイチョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イケン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>マイゴ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>クフウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・前年度に引き続き業務のメリハリを付け、余裕をもって業務を行い、メンタルの安定化をする。</t>
+    <rPh sb="1" eb="4">
+      <t>ゼンネンド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>アンテイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身の時間、精神的肉体的キャパシティを把握し、常に70%の力で業務に当たるように注意する。</t>
+    <rPh sb="23" eb="24">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【設定理由】：FY25では、自分の実力の90～100%で業務していることがあり、FY26では、私自身でしか出来ない業務をなくすために設定。
+【達成のためのアクション】：
+　・自分のタスクを常に可視化するように個人WBSを作成し、70%の力で常に業務に当たっているか、オーバーワークになった時にSV及び他のリーダー陣に任せるかを常に考えて業務を実施する。
+【達成基準】：
+・個人WBSの作業工数で約70%(誤差3%以内)になるように、作業を可視化する。</t>
+    <rPh sb="14" eb="16">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジツリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>ワタシジシン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="96" eb="99">
+      <t>カシカ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>マカ</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="192" eb="196">
+      <t>サギョウコウスウ</t>
+    </rPh>
+    <rPh sb="197" eb="198">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>ゴサ</t>
+    </rPh>
+    <rPh sb="206" eb="208">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="216" eb="218">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="219" eb="222">
+      <t>カシカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1576,47 +1831,47 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2412,7 +2667,7 @@
       <pane xSplit="4" ySplit="14" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E18" sqref="E18"/>
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.5" outlineLevelRow="2" x14ac:dyDescent="0.55000000000000004"/>
@@ -2466,23 +2721,23 @@
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="2:42" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:42" ht="25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:42" ht="6" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.55000000000000004"/>
@@ -2505,16 +2760,16 @@
       <c r="E7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="57" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="57"/>
+      <c r="K7" s="52"/>
     </row>
     <row r="8" spans="2:42" ht="44.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="17" t="s">
@@ -2529,14 +2784,14 @@
       <c r="E8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="58" t="s">
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="59"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="9" spans="2:42" ht="44.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="17" t="s">
@@ -2551,14 +2806,14 @@
       <c r="E9" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="58" t="s">
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="59"/>
+      <c r="K9" s="54"/>
     </row>
     <row r="10" spans="2:42" ht="44.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="17" t="s">
@@ -2571,16 +2826,16 @@
         <v>41</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="59"/>
+      <c r="K10" s="54"/>
     </row>
     <row r="11" spans="2:42" ht="6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="20"/>
@@ -2613,51 +2868,51 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="46" t="str">
+      <c r="J13" s="58" t="str">
         <f>"セルフFB_#"&amp;COUNTIF($B$13:I$13,"セルフFB*")+1</f>
         <v>セルフFB_#1</v>
       </c>
-      <c r="K13" s="47"/>
+      <c r="K13" s="59"/>
       <c r="L13" s="44" t="str">
         <f>"SVFB_#"&amp;COUNTIF($B$13:K$13,"SVFB*")+1</f>
         <v>SVFB_#1</v>
       </c>
       <c r="M13" s="45"/>
-      <c r="N13" s="46" t="str">
+      <c r="N13" s="58" t="str">
         <f>"セルフFB_#"&amp;COUNTIF($B$13:M$13,"セルフFB*")+1</f>
         <v>セルフFB_#2</v>
       </c>
-      <c r="O13" s="47"/>
+      <c r="O13" s="59"/>
       <c r="P13" s="44" t="str">
         <f>"SVFB_#"&amp;COUNTIF($B$13:O$13,"SVFB*")+1</f>
         <v>SVFB_#2</v>
       </c>
       <c r="Q13" s="45"/>
-      <c r="R13" s="46" t="str">
+      <c r="R13" s="58" t="str">
         <f>"セルフFB_#"&amp;COUNTIF($B$13:Q$13,"セルフFB*")+1</f>
         <v>セルフFB_#3</v>
       </c>
-      <c r="S13" s="47"/>
+      <c r="S13" s="59"/>
       <c r="T13" s="44" t="str">
         <f>"SVFB_#"&amp;COUNTIF($B$13:S$13,"SVFB*")+1</f>
         <v>SVFB_#3</v>
       </c>
       <c r="U13" s="45"/>
-      <c r="V13" s="46" t="str">
+      <c r="V13" s="58" t="str">
         <f>"セルフFB_#"&amp;COUNTIF($B$13:U$13,"セルフFB*")+1</f>
         <v>セルフFB_#4</v>
       </c>
-      <c r="W13" s="47"/>
+      <c r="W13" s="59"/>
       <c r="X13" s="44" t="str">
         <f>"SVFB_#"&amp;COUNTIF($B$13:W$13,"SVFB*")+1</f>
         <v>SVFB_#4</v>
       </c>
       <c r="Y13" s="45"/>
-      <c r="Z13" s="46" t="str">
+      <c r="Z13" s="58" t="str">
         <f>"セルフFB_#"&amp;COUNTIF($B$13:Y$13,"セルフFB*")+1</f>
         <v>セルフFB_#5</v>
       </c>
-      <c r="AA13" s="47"/>
+      <c r="AA13" s="59"/>
       <c r="AB13" s="44" t="str">
         <f>"SVFB_#"&amp;COUNTIF($B$13:AA$13,"SVFB*")+1</f>
         <v>SVFB_#5</v>
@@ -2776,12 +3031,14 @@
         <v>32</v>
       </c>
       <c r="D15" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="37"/>
+      <c r="F15" s="37">
+        <v>45901</v>
+      </c>
       <c r="G15" s="37"/>
       <c r="H15" s="33"/>
       <c r="I15" s="31"/>
@@ -2816,11 +3073,15 @@
       <c r="C16" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="32"/>
+      <c r="D16" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="E16" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="37"/>
+        <v>74</v>
+      </c>
+      <c r="F16" s="37">
+        <v>45901</v>
+      </c>
       <c r="G16" s="37"/>
       <c r="H16" s="33"/>
       <c r="I16" s="31"/>
@@ -2855,9 +3116,15 @@
       <c r="C17" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="37"/>
+      <c r="D17" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="37">
+        <v>45901</v>
+      </c>
       <c r="G17" s="37"/>
       <c r="H17" s="33"/>
       <c r="I17" s="31"/>
@@ -2893,12 +3160,14 @@
         <v>60</v>
       </c>
       <c r="D18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="37"/>
+      <c r="F18" s="37">
+        <v>45901</v>
+      </c>
       <c r="G18" s="37"/>
       <c r="H18" s="33"/>
       <c r="I18" s="31"/>
@@ -3316,6 +3585,17 @@
     </sortState>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
@@ -3325,17 +3605,6 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B15:AD28">
@@ -3553,6 +3822,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="8d277efa-c465-48ab-8a54-8a9c920e3d0d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6b74e563-c8ba-468d-8003-e50e867589bc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_Flow_SignoffStatus xmlns="6b74e563-c8ba-468d-8003-e50e867589bc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B82AA187180C64E87EB3EC288D9ABCC" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56fe32666cb7119c9135ed6f43508cd6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8d277efa-c465-48ab-8a54-8a9c920e3d0d" xmlns:ns3="6b74e563-c8ba-468d-8003-e50e867589bc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d361321b94141c10976186097cd9705" ns2:_="" ns3:_="">
     <xsd:import namespace="8d277efa-c465-48ab-8a54-8a9c920e3d0d"/>
@@ -3799,28 +4089,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="8d277efa-c465-48ab-8a54-8a9c920e3d0d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6b74e563-c8ba-468d-8003-e50e867589bc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_Flow_SignoffStatus xmlns="6b74e563-c8ba-468d-8003-e50e867589bc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2287FD1F-2863-44E6-AC7D-E5DB9A8A1991}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0286D770-B9EF-4196-924C-5D4A387F94D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8d277efa-c465-48ab-8a54-8a9c920e3d0d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="6b74e563-c8ba-468d-8003-e50e867589bc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0781FB0-B990-4CBE-863D-AD670F0E0F28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3839,31 +4133,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0286D770-B9EF-4196-924C-5D4A387F94D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6b74e563-c8ba-468d-8003-e50e867589bc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d277efa-c465-48ab-8a54-8a9c920e3d0d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2287FD1F-2863-44E6-AC7D-E5DB9A8A1991}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{28c6aeda-4040-4623-8326-91265b55fc23}" enabled="1" method="Privileged" siteId="{e0793d39-0939-496d-b129-198edd916feb}" contentBits="1" removed="0"/>

--- a/AS_FY26_【takao.hattori】_目標管理／FBシート.xlsx
+++ b/AS_FY26_【takao.hattori】_目標管理／FBシート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ts.accenture.com/sites/a_SV689/Shared Documents/General/01_生麦ドキュメント/01_個人用フォルダ(権限制限有)/takao.hattori/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2462" documentId="8_{095BF371-AB65-46B6-B120-C5B9C5048FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FEBD0FC-B960-4B47-8774-61E20FF04782}"/>
+  <xr:revisionPtr revIDLastSave="2485" documentId="8_{095BF371-AB65-46B6-B120-C5B9C5048FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0206D59-D29D-47E7-AD2A-85978CA42FA7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="832" firstSheet="1" activeTab="1" xr2:uid="{EE1F9763-8749-4457-8280-CB4D59ABE484}"/>
   </bookViews>
@@ -1077,190 +1077,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【設定理由】：現状、個々のメンバーそれぞれで、自動化ツールの開発、保守を実施しているが、保守しにくいツールがあり、メンテナンスに大きな工数をかけているために設定しました。
-【達成のためのアクション】：
-　・ソースコードのコメントの書き方を、一部共通化して、分かりやすく、メンテナンスしやすいように生麦Xチーム内でルール化し、共通ルールをドキュメント化する。
-【達成基準】：
-・生麦Xチーム内で開発したツールの詳細設計書を全て作成する。</t>
-    <rPh sb="7" eb="9">
-      <t>ゲンジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ココ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ホシュ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ホシュ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>コウスウ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="120" eb="125">
-      <t>イチブキョウツウカ</t>
-    </rPh>
-    <rPh sb="128" eb="129">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>ナマムギ</t>
-    </rPh>
-    <rPh sb="154" eb="155">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="159" eb="160">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="174" eb="175">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="188" eb="190">
-      <t>ナマムギ</t>
-    </rPh>
-    <rPh sb="194" eb="195">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="196" eb="198">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="204" eb="209">
-      <t>ショウサイセッケイショ</t>
-    </rPh>
-    <rPh sb="210" eb="211">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="212" eb="214">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【設定理由】：現状、生麦Xチームの傾向として、すぐに状況判断しすぎて、方向性を見誤るケースが散見されるために設定。
-【達成のためのアクション】：
-　・リーダー陣およびリーダー候補の意見を聞いたうえで、冷静に判断できる役割を果たし、グループ全体、チーム全体の方向性を一本化するように動く。
-【達成基準】：
-・生麦Xチーム内、およびグループ内で意見の総意、誤った指示を0件にする。</t>
-    <rPh sb="7" eb="9">
-      <t>ゲンジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ナマムギ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケイコウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ハンダン</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ホウコウセイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ミアヤマ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>サンケン</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>ジン</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>コウホ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>イケン</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>レイセイ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ハンダン</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ヤクワリ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="128" eb="131">
-      <t>ホウコウセイ</t>
-    </rPh>
-    <rPh sb="132" eb="135">
-      <t>イッポンカ</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>ナマムギ</t>
-    </rPh>
-    <rPh sb="159" eb="160">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="170" eb="172">
-      <t>イケン</t>
-    </rPh>
-    <rPh sb="173" eb="175">
-      <t>ソウイ</t>
-    </rPh>
-    <rPh sb="176" eb="177">
-      <t>アヤマ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>シジ</t>
-    </rPh>
-    <rPh sb="183" eb="184">
-      <t>ケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>グループの意見、リーダー陣の意見を傾聴し、意見の統一を図り、指示の迷子にならないように、コミュニケーションを工夫する。</t>
     <rPh sb="5" eb="7">
       <t>イケン</t>
@@ -1345,106 +1161,373 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【設定理由】：FY25では、自分の実力の90～100%で業務していることがあり、FY26では、私自身でしか出来ない業務をなくすために設定。
+    <t xml:space="preserve">【設定理由】：現状、個々のメンバーそれぞれで、自動化ツールの開発、保守を実施しているが、保守しにくいツールがあり、メンテナンスに大きな工数をかけているために設定しました。
+【達成のためのアクション】：
+　・ソースコードのコメントの書き方を、共通化して、分かりやすく、メンテナンスしやすいように生麦Xチーム内でルール化し、共通ルールをドキュメント化する。
+・プログラミングコンテストを企画する。
+・プログラムに興味を持つしかけを作る。
+・コードレビューを題材にした研修を実施して、新入社員研修のVBAの研修ができるように、題材を決めて、開発をしていただく場を設ける。(半年)
+【達成基準】：
+・新入社員研修の研修課題を1つ作る(半年)
+</t>
+    <rPh sb="7" eb="9">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ココ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ナマムギ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>キョウミ</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="213" eb="214">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="226" eb="228">
+      <t>ダイザイ</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>ケンシュウ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="239" eb="245">
+      <t>シンニュウシャインケンシュウ</t>
+    </rPh>
+    <rPh sb="250" eb="252">
+      <t>ケンシュウ</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>ダイザイ</t>
+    </rPh>
+    <rPh sb="263" eb="264">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="267" eb="269">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="276" eb="277">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="278" eb="279">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="283" eb="285">
+      <t>ハントシ</t>
+    </rPh>
+    <rPh sb="296" eb="302">
+      <t>シンニュウシャインケンシュウ</t>
+    </rPh>
+    <rPh sb="303" eb="307">
+      <t>ケンシュウカダイ</t>
+    </rPh>
+    <rPh sb="310" eb="311">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="313" eb="315">
+      <t>ハントシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【設定理由】：FY25では、自分の実力の100%超過で業務していることがあり、FY26では、私自身でしか出来ない業務をなくすために設定。
 【達成のためのアクション】：
 　・自分のタスクを常に可視化するように個人WBSを作成し、70%の力で常に業務に当たっているか、オーバーワークになった時にSV及び他のリーダー陣に任せるかを常に考えて業務を実施する。
 【達成基準】：
-・個人WBSの作業工数で約70%(誤差3%以内)になるように、作業を可視化する。</t>
+・個人WBSの作業工数でオーバーフローによる体調不良による、他者からのクレームを0件にする。</t>
     <rPh sb="14" eb="16">
       <t>ジブン</t>
     </rPh>
     <rPh sb="17" eb="19">
       <t>ジツリョク</t>
     </rPh>
+    <rPh sb="24" eb="26">
+      <t>チョウカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ワタシジシン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="95" eb="98">
+      <t>カシカ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>マカ</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="191" eb="195">
+      <t>サギョウコウスウ</t>
+    </rPh>
+    <rPh sb="206" eb="210">
+      <t>タイチョウフリョウ</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>タシャ</t>
+    </rPh>
+    <rPh sb="225" eb="226">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【設定理由】：現状、生麦Xチームの傾向として、すぐに状況判断しすぎて、方向性を見誤るケースが散見されるために設定。
+【達成のためのアクション】：
+　・リーダー陣およびリーダー候補の意見を聞いたうえで、冷静に判断できる役割を果たし、グループ全体、チーム全体の方向性を一本化するように動くために、対象メンバーと認識を合わせ、統一の見解で指示を出すように心がける。
+・質問、相談があった時に、質問で返して、ワンクッションを与え、メンバーでに壁打ちする。
+【達成基準】：
+・生麦Xチーム内、およびグループ内で意見の総意、誤った指示によるクレームを0件にする。</t>
+    <rPh sb="7" eb="9">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナマムギ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケイコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウキョウ</t>
+    </rPh>
     <rPh sb="28" eb="30">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="47" eb="50">
-      <t>ワタシジシン</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="66" eb="68">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ホウコウセイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ミアヤマ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>サンケン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
       <t>セッテイ</t>
     </rPh>
+    <rPh sb="79" eb="80">
+      <t>ジン</t>
+    </rPh>
     <rPh sb="87" eb="89">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>ツネ</t>
-    </rPh>
-    <rPh sb="96" eb="99">
-      <t>カシカ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>チカラ</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>ツネ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="125" eb="126">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>イケン</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>レイセイ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="128" eb="131">
+      <t>ホウコウセイ</t>
+    </rPh>
+    <rPh sb="132" eb="135">
+      <t>イッポンカ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
       <t>ア</t>
     </rPh>
-    <rPh sb="144" eb="145">
+    <rPh sb="160" eb="162">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ケンカイ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="190" eb="191">
       <t>トキ</t>
     </rPh>
-    <rPh sb="148" eb="149">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="150" eb="151">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="156" eb="157">
-      <t>ジン</t>
-    </rPh>
-    <rPh sb="158" eb="159">
-      <t>マカ</t>
-    </rPh>
-    <rPh sb="163" eb="164">
-      <t>ツネ</t>
-    </rPh>
-    <rPh sb="165" eb="166">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="171" eb="173">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="186" eb="188">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="192" eb="196">
-      <t>サギョウコウスウ</t>
-    </rPh>
-    <rPh sb="197" eb="198">
-      <t>ヤク</t>
-    </rPh>
-    <rPh sb="202" eb="204">
-      <t>ゴサ</t>
-    </rPh>
-    <rPh sb="206" eb="208">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="216" eb="218">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="219" eb="222">
-      <t>カシカ</t>
+    <rPh sb="193" eb="195">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="208" eb="209">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="217" eb="219">
+      <t>カベウ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>ナマムギ</t>
+    </rPh>
+    <rPh sb="239" eb="240">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="248" eb="249">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="250" eb="252">
+      <t>イケン</t>
+    </rPh>
+    <rPh sb="253" eb="255">
+      <t>ソウイ</t>
+    </rPh>
+    <rPh sb="256" eb="257">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="259" eb="261">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="270" eb="271">
+      <t>ケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2663,11 +2746,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:AP28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="14" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E18" sqref="E18"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.5" outlineLevelRow="2" x14ac:dyDescent="0.55000000000000004"/>
@@ -2826,7 +2906,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F10" s="49"/>
       <c r="G10" s="50"/>
@@ -3023,7 +3103,7 @@
       <c r="AO14" s="12"/>
       <c r="AP14" s="12"/>
     </row>
-    <row r="15" spans="2:42" ht="165.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:42" ht="189" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="31">
         <v>1</v>
       </c>
@@ -3034,7 +3114,7 @@
         <v>68</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F15" s="37">
         <v>45901</v>
@@ -3066,7 +3146,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:42" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:42" ht="121.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="31">
         <v>2</v>
       </c>
@@ -3074,10 +3154,10 @@
         <v>32</v>
       </c>
       <c r="D16" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="32" t="s">
         <v>73</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>74</v>
       </c>
       <c r="F16" s="37">
         <v>45901</v>
@@ -3109,7 +3189,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:30" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:30" ht="162" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="31">
         <v>3</v>
       </c>
@@ -3117,10 +3197,10 @@
         <v>59</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F17" s="37">
         <v>45901</v>
@@ -4100,16 +4180,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0286D770-B9EF-4196-924C-5D4A387F94D6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8d277efa-c465-48ab-8a54-8a9c920e3d0d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="6b74e563-c8ba-468d-8003-e50e867589bc"/>
+    <ds:schemaRef ds:uri="8d277efa-c465-48ab-8a54-8a9c920e3d0d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
